--- a/ML Algorithms Analysis for detecting Fraud Transactions.xlsx
+++ b/ML Algorithms Analysis for detecting Fraud Transactions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajs8\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajs8\Desktop\CSUSM\Courses\CS-575-ML\Fraud-Transaction-Detection-ML-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FF4BCE-BB1D-41D7-8328-D6997AC945D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1218C18B-E5F8-4EA3-A400-295C3B0D33BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BB96A7E-095C-4A2E-8C04-2F02CDF50EBE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="23">
   <si>
     <t>Logistic Regression</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Gradient Boosting classifier</t>
-  </si>
-  <si>
-    <t>Prediction Time</t>
-  </si>
-  <si>
-    <t>Training time</t>
   </si>
   <si>
     <t>Accuracy</t>
@@ -106,6 +100,12 @@
   <si>
     <t>Testing</t>
   </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
@@ -136,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -368,16 +368,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -386,9 +502,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -400,6 +516,58 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +665,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$2</c:f>
+              <c:f>Sheet1!$T$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -520,7 +688,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$3:$N$9</c:f>
+              <c:f>Sheet1!$S$27:$S$33</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -549,7 +717,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$9</c:f>
+              <c:f>Sheet1!$T$27:$T$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -589,7 +757,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$2</c:f>
+              <c:f>Sheet1!$U$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -612,7 +780,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$3:$N$9</c:f>
+              <c:f>Sheet1!$S$27:$S$33</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -641,7 +809,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$9</c:f>
+              <c:f>Sheet1!$U$27:$U$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -681,7 +849,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$2</c:f>
+              <c:f>Sheet1!$V$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -704,7 +872,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$3:$N$9</c:f>
+              <c:f>Sheet1!$S$27:$S$33</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -733,7 +901,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$9</c:f>
+              <c:f>Sheet1!$V$27:$V$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -754,6 +922,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.99961808185935896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99961965353894999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,7 +1187,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$2</c:f>
+              <c:f>Sheet1!$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1039,7 +1210,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$S$3:$S$9</c:f>
+              <c:f>Sheet1!$X$27:$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1068,7 +1239,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$3:$T$9</c:f>
+              <c:f>Sheet1!$Y$27:$Y$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1108,7 +1279,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$2</c:f>
+              <c:f>Sheet1!$Z$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1131,7 +1302,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$S$3:$S$9</c:f>
+              <c:f>Sheet1!$X$27:$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1160,7 +1331,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$3:$U$9</c:f>
+              <c:f>Sheet1!$Z$27:$Z$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1200,7 +1371,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$2</c:f>
+              <c:f>Sheet1!$AA$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1223,7 +1394,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$S$3:$S$9</c:f>
+              <c:f>Sheet1!$X$27:$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1252,29 +1423,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$V$3:$V$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.99687011000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99560024999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99645138</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99730942</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99761621</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99824561000000001</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Sheet1!$AA$27:$AA$33</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1535,7 +1684,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$2</c:f>
+              <c:f>Sheet1!$AD$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1558,7 +1707,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$X$3:$X$9</c:f>
+              <c:f>Sheet1!$AC$27:$AC$33</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1587,7 +1736,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$3:$Y$9</c:f>
+              <c:f>Sheet1!$AD$27:$AD$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1627,7 +1776,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$2</c:f>
+              <c:f>Sheet1!$AE$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1650,7 +1799,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$X$3:$X$9</c:f>
+              <c:f>Sheet1!$AC$27:$AC$33</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1679,7 +1828,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$3:$Z$9</c:f>
+              <c:f>Sheet1!$AE$27:$AE$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1719,7 +1868,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AA$2</c:f>
+              <c:f>Sheet1!$AF$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1742,7 +1891,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$X$3:$X$9</c:f>
+              <c:f>Sheet1!$AC$27:$AC$33</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1771,7 +1920,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$3:$AA$9</c:f>
+              <c:f>Sheet1!$AF$27:$AF$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1792,6 +1941,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.70160296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70370370000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,7 +2206,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$39</c:f>
+              <c:f>Sheet1!$AD$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2077,7 +2229,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$X$40:$X$46</c:f>
+              <c:f>Sheet1!$AC$64:$AC$70</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2106,7 +2258,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$40:$Y$46</c:f>
+              <c:f>Sheet1!$AD$64:$AD$70</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2146,7 +2298,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$39</c:f>
+              <c:f>Sheet1!$AE$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2169,7 +2321,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$X$40:$X$46</c:f>
+              <c:f>Sheet1!$AC$64:$AC$70</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2198,7 +2350,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$40:$Z$46</c:f>
+              <c:f>Sheet1!$AE$64:$AE$70</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2238,7 +2390,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AA$39</c:f>
+              <c:f>Sheet1!$AF$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2261,7 +2413,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$X$40:$X$46</c:f>
+              <c:f>Sheet1!$AC$64:$AC$70</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2290,7 +2442,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$40:$AA$46</c:f>
+              <c:f>Sheet1!$AF$64:$AF$70</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2580,7 +2732,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$39</c:f>
+              <c:f>Sheet1!$T$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2615,7 +2767,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$40:$N$46</c:f>
+              <c:f>Sheet1!$S$64:$S$70</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2644,7 +2796,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$40:$O$46</c:f>
+              <c:f>Sheet1!$T$64:$T$70</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2684,7 +2836,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$39</c:f>
+              <c:f>Sheet1!$U$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2719,7 +2871,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$40:$N$46</c:f>
+              <c:f>Sheet1!$S$64:$S$70</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2748,7 +2900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$40:$P$46</c:f>
+              <c:f>Sheet1!$U$64:$U$70</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2788,7 +2940,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$39</c:f>
+              <c:f>Sheet1!$V$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2823,7 +2975,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$40:$N$46</c:f>
+              <c:f>Sheet1!$S$64:$S$70</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2852,7 +3004,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$40:$Q$46</c:f>
+              <c:f>Sheet1!$V$64:$V$70</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3004,6 +3156,1547 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="273404191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gradient Boosting classifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$3:$S$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30%, 35%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40%, 30%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%, 25%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60%, 20%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70%, 15%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80%, 10%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90%, 5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$3:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.99911566828340104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999112393950919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99906516497920606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99880159431177695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99932934186590605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99927309818911003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99908021817706805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56EB-4813-AE56-2683F9601B71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$3:$S$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30%, 35%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40%, 30%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%, 25%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60%, 20%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70%, 15%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80%, 10%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90%, 5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$3:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.99936032640641703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99936857772427001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99936567011702704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999374995415934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99938255444634805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99939627857706403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99939630040594696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56EB-4813-AE56-2683F9601B71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random forest classifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$3:$S$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30%, 35%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40%, 30%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%, 25%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60%, 20%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70%, 15%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80%, 10%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90%, 5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$3:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.99991041426330596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99990216294545298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99990192719351401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99990203197215399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.999909067109371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99990550276458401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99990744553518995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-56EB-4813-AE56-2683F9601B71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="273404191"/>
+        <c:axId val="295132559"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="273404191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295132559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="295132559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273404191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Precision</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gradient Boosting classifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$3:$X$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30%, 35%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40%, 30%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%, 25%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60%, 20%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70%, 15%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80%, 10%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90%, 5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.66050708999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65979054000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64077909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54685353000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81550317000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80211794000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78143949000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6349-4F0F-9A01-85B8A0B61A27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$3:$X$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30%, 35%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40%, 30%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%, 25%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60%, 20%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70%, 15%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80%, 10%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90%, 5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.95984848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96211698999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96130167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96336995999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96519864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96847682000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96444549000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6349-4F0F-9A01-85B8A0B61A27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random forest classifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$3:$X$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30%, 35%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40%, 30%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%, 25%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60%, 20%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70%, 15%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80%, 10%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90%, 5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$3:$AA$9</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6349-4F0F-9A01-85B8A0B61A27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="273409951"/>
+        <c:axId val="273410431"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="273409951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273410431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="273410431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273409951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Recall</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gradient Boosting classifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$3:$AC$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30%, 35%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40%, 30%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%, 25%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60%, 20%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70%, 15%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80%, 10%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90%, 5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$3:$AD$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.63121150000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63655848000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63143828999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40480064999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62346214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58441754999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40043232000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-519A-48C4-9F3C-B20726A8264E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$3:$AC$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30%, 35%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40%, 30%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%, 25%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60%, 20%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70%, 15%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80%, 10%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90%, 5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$3:$AE$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.52032853999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52878137999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53109815000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53498778999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54306012999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55310135999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55336395999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-519A-48C4-9F3C-B20726A8264E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AF$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random forest classifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$3:$AC$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30%, 35%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40%, 30%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%, 25%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60%, 20%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70%, 15%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80%, 10%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90%, 5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$3:$AF$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.92977412999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92406613999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92419825</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92392189000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92999480000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92738275000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92853282999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-519A-48C4-9F3C-B20726A8264E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="358238719"/>
+        <c:axId val="358239679"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="358238719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358239679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="358239679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358238719"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3259,6 +4952,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5839,19 +7652,1567 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>5591</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>877743</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5879,15 +9240,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>3949</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>1051367</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5915,15 +9276,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>7624</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>1041722</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5951,15 +9312,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>1384531</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5989,15 +9350,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>1384531</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6020,6 +9381,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>872152</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF870AB8-FBBC-4EB9-AB20-39B975A23DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>612508</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1045776</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2825082-4BD1-4197-9E5F-F5D373D9FBE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>2033</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1036131</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7F10AD-90FA-45C9-A0B3-1B66FE04F7F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6325,1448 +9800,2145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF16570-FC94-4C4B-9563-7306C1686688}">
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T50" sqref="T50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.33203125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="61"/>
+    </row>
+    <row r="2" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="49">
+        <v>0.66157407407407409</v>
+      </c>
+      <c r="D3" s="49">
+        <v>0.66975694444444445</v>
+      </c>
+      <c r="E3" s="49">
+        <v>0.67017361111111118</v>
+      </c>
+      <c r="F3" s="50">
+        <v>0.99911566828340104</v>
+      </c>
+      <c r="G3" s="51">
+        <v>0.99952896999999996</v>
+      </c>
+      <c r="H3" s="51">
+        <v>0.66050708999999996</v>
+      </c>
+      <c r="I3" s="51">
+        <v>0.99958559999999996</v>
+      </c>
+      <c r="J3" s="52">
+        <v>0.63121150000000004</v>
+      </c>
+      <c r="K3" s="50">
+        <v>0.99912794235258795</v>
+      </c>
+      <c r="L3" s="51">
+        <v>0.99950996000000003</v>
+      </c>
+      <c r="M3" s="51">
+        <v>0.67505720999999996</v>
+      </c>
+      <c r="N3" s="51">
+        <v>0.99961692000000002</v>
+      </c>
+      <c r="O3" s="52">
+        <v>0.61888111999999995</v>
+      </c>
+      <c r="P3" s="53">
+        <f t="shared" ref="P3:P20" si="0">D3-C3</f>
+        <v>8.1828703703703543E-3</v>
+      </c>
+      <c r="Q3" s="54">
+        <f t="shared" ref="Q3:Q20" si="1">E3-D3</f>
+        <v>4.166666666667318E-4</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0.99911566828340104</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0.99936032640641703</v>
+      </c>
+      <c r="V3" s="15">
+        <v>0.99991041426330596</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>0.66050708999999996</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0.95984848</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>0.63121150000000004</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>0.52032853999999995</v>
+      </c>
+      <c r="AF3" s="15">
+        <v>0.92977412999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0.69361111111111118</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0.71289351851851857</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0.71347222222222229</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0.999112393950919</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0.99953303000000004</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0.65979054000000004</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0.99957825</v>
+      </c>
+      <c r="J4" s="38">
+        <v>0.63655848000000004</v>
+      </c>
+      <c r="K4" s="36">
+        <v>0.99912667004053801</v>
+      </c>
+      <c r="L4" s="37">
+        <v>0.99951272999999996</v>
+      </c>
+      <c r="M4" s="37">
+        <v>0.67214571000000001</v>
+      </c>
+      <c r="N4" s="37">
+        <v>0.99961286999999999</v>
+      </c>
+      <c r="O4" s="38">
+        <v>0.61957412000000001</v>
+      </c>
+      <c r="P4" s="43">
+        <f t="shared" si="0"/>
+        <v>1.9282407407407387E-2</v>
+      </c>
+      <c r="Q4" s="44">
+        <f t="shared" si="1"/>
+        <v>5.7870370370372015E-4</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0.999112393950919</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0.99936857772427001</v>
+      </c>
+      <c r="V4" s="16">
+        <v>0.99990216294545298</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>0.65979054000000004</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0.96211698999999995</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>0.99966876000000005</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>0.63655848000000004</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0.52878137999999997</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>0.92406613999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.66157407407407409</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.66975694444444445</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.67017361111111118</v>
-      </c>
-      <c r="F2">
-        <v>0.99912794235258795</v>
-      </c>
-      <c r="G2">
-        <v>0.99950996000000003</v>
-      </c>
-      <c r="H2">
-        <v>0.67505720999999996</v>
-      </c>
-      <c r="I2">
-        <v>0.99961692000000002</v>
-      </c>
-      <c r="J2">
-        <v>0.61888111999999995</v>
-      </c>
-      <c r="K2" s="1">
-        <f>D2-C2</f>
-        <v>8.1828703703703543E-3</v>
-      </c>
-      <c r="L2" s="1">
-        <f>E2-D2</f>
-        <v>4.166666666667318E-4</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.69361111111111118</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.71289351851851857</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.71347222222222229</v>
-      </c>
-      <c r="F3">
-        <v>0.99912667004053801</v>
-      </c>
-      <c r="G3">
-        <v>0.99951272999999996</v>
-      </c>
-      <c r="H3">
-        <v>0.67214571000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.99961286999999999</v>
-      </c>
-      <c r="J3">
-        <v>0.61957412000000001</v>
-      </c>
-      <c r="K3" s="1">
-        <f>D3-C3</f>
-        <v>1.9282407407407387E-2</v>
-      </c>
-      <c r="L3" s="1">
-        <f>E3-D3</f>
-        <v>5.7870370370372015E-4</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="10">
-        <v>0.99912794235258795</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0.99925322766856595</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>0.99957115599728197</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="10">
-        <v>0.67505720999999996</v>
-      </c>
-      <c r="U3" s="6">
-        <v>0.90742001000000005</v>
-      </c>
-      <c r="V3" s="16">
-        <v>0.99687011000000003</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>0.61888111999999995</v>
-      </c>
-      <c r="Z3" s="6">
-        <v>0.46608391999999998</v>
-      </c>
-      <c r="AA3" s="16">
-        <v>0.66818182000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C5" s="39">
         <v>0.76564814814814808</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="39">
         <v>0.79640046296296296</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="39">
         <v>0.79690972222222223</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="36">
+        <v>0.99906516497920606</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0.99952253999999996</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0.64077909</v>
+      </c>
+      <c r="I5" s="37">
+        <v>0.99954142000000001</v>
+      </c>
+      <c r="J5" s="38">
+        <v>0.63143828999999996</v>
+      </c>
+      <c r="K5" s="36">
         <v>0.99909534122735599</v>
       </c>
-      <c r="G4">
+      <c r="L5" s="37">
         <v>0.99952414000000001</v>
       </c>
-      <c r="H4">
+      <c r="M5" s="37">
         <v>0.64992311999999997</v>
       </c>
-      <c r="I4">
+      <c r="N5" s="37">
         <v>0.99957006999999998</v>
       </c>
-      <c r="J4">
+      <c r="O5" s="38">
         <v>0.62648221000000004</v>
       </c>
-      <c r="K4" s="1">
-        <f>D4-C4</f>
-        <v>3.0752314814814885E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <f>E4-D4</f>
-        <v>5.0925925925926485E-4</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0.99912667004053801</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0.99926026280578295</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>0.99954683238456199</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="11">
-        <v>0.67214571000000001</v>
-      </c>
-      <c r="U4" s="5">
-        <v>0.90679304999999999</v>
-      </c>
-      <c r="V4" s="17">
-        <v>0.99560024999999996</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>0.61957412000000001</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>0.47010647</v>
-      </c>
-      <c r="AA4" s="17">
-        <v>0.64864865000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.85001157407407402</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.89247685185185188</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.89300925925925922</v>
-      </c>
-      <c r="F5">
-        <v>0.99880866686993697</v>
-      </c>
-      <c r="G5">
-        <v>0.99922445999999998</v>
-      </c>
-      <c r="H5">
-        <v>0.53792501999999998</v>
-      </c>
-      <c r="I5">
-        <v>0.99958298000000001</v>
-      </c>
-      <c r="J5">
-        <v>0.38490331</v>
-      </c>
-      <c r="K5" s="1">
-        <f>D5-C5</f>
-        <v>4.2465277777777866E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <f>E5-D5</f>
-        <v>5.324074074073426E-4</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0.99909534122735599</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0.99927891340359698</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>0.99960708010222199</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="11">
-        <v>0.64992311999999997</v>
-      </c>
-      <c r="U5" s="5">
-        <v>0.91173709000000003</v>
-      </c>
-      <c r="V5" s="17">
-        <v>0.99645138</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>0.62648221000000004</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>0.47974307999999999</v>
-      </c>
-      <c r="AA5" s="17">
-        <v>0.69367588999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.95771990740740742</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.9821643518518518</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.98241898148148143</v>
-      </c>
-      <c r="F6">
-        <v>0.99931998663024502</v>
-      </c>
-      <c r="G6">
-        <v>0.99950181999999999</v>
-      </c>
-      <c r="H6">
-        <v>0.81310419</v>
-      </c>
-      <c r="I6">
-        <v>0.99981745</v>
-      </c>
-      <c r="J6">
-        <v>0.61444805000000002</v>
-      </c>
-      <c r="K6" s="1">
-        <f>D6-C6</f>
-        <v>2.444444444444438E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <f>E6-D6</f>
-        <v>2.5462962962963243E-4</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0.99880866686993697</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0.99928174242686096</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>0.99961179514099496</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="11">
-        <v>0.53792501999999998</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0.90577149999999995</v>
-      </c>
-      <c r="V6" s="17">
-        <v>0.99730942</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>0.38490331</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>0.47972551000000002</v>
-      </c>
-      <c r="AA6" s="17">
-        <v>0.69369930999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5.8321759259259261E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8.8576388888888899E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>8.8842592592592584E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.99928174242686096</v>
-      </c>
-      <c r="G7">
-        <v>0.99947142</v>
-      </c>
-      <c r="H7">
-        <v>0.79697987000000003</v>
-      </c>
-      <c r="I7">
-        <v>0.99980957999999998</v>
-      </c>
-      <c r="J7">
-        <v>0.58569667000000003</v>
-      </c>
-      <c r="K7" s="1">
-        <f>D7-C7</f>
-        <v>3.0254629629629638E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <f>E7-D7</f>
-        <v>2.6620370370368518E-4</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0.99931998663024502</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0.99927493181530003</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>0.99958402880155195</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" s="11">
-        <v>0.81310419</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0.90419161999999997</v>
-      </c>
-      <c r="V7" s="17">
-        <v>0.99761621</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>0.61444805000000002</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>0.49025974</v>
-      </c>
-      <c r="AA7" s="17">
-        <v>0.67938312000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.19043981481481484</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.23065972222222222</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.23093750000000002</v>
-      </c>
-      <c r="F8">
-        <v>0.99909156919633701</v>
-      </c>
-      <c r="G8">
-        <v>0.99927021000000005</v>
-      </c>
-      <c r="H8">
-        <v>0.75217391</v>
-      </c>
-      <c r="I8">
-        <v>0.99982059999999995</v>
-      </c>
-      <c r="J8">
-        <v>0.42716049</v>
-      </c>
-      <c r="K8" s="1">
-        <f>D8-C8</f>
-        <v>4.0219907407407385E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <f>E8-D8</f>
-        <v>2.7777777777779344E-4</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0.99928174242686096</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0.99928331410645299</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>0.99961808185935896</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="11">
-        <v>0.79697987000000003</v>
-      </c>
-      <c r="U8" s="5">
-        <v>0.91183294999999998</v>
-      </c>
-      <c r="V8" s="17">
-        <v>0.99824561000000001</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>0.58569667000000003</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>0.48458693000000003</v>
-      </c>
-      <c r="AA8" s="17">
-        <v>0.70160296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.65953703703703703</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.66113425925925928</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.6615509259259259</v>
-      </c>
-      <c r="F9">
-        <v>0.99925322766856595</v>
-      </c>
-      <c r="G9">
-        <v>0.99931384999999995</v>
-      </c>
-      <c r="H9">
-        <v>0.90742001000000005</v>
-      </c>
-      <c r="I9">
-        <v>0.99993885000000005</v>
-      </c>
-      <c r="J9">
-        <v>0.46608391999999998</v>
-      </c>
-      <c r="K9" s="1">
-        <f>D9-C9</f>
-        <v>1.5972222222222499E-3</v>
-      </c>
-      <c r="L9" s="1">
-        <f>E9-D9</f>
-        <v>4.1666666666662078E-4</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="18">
-        <v>0.99909156919633701</v>
-      </c>
-      <c r="P9" s="19">
-        <v>0.99929274418399905</v>
-      </c>
-      <c r="Q9" s="20"/>
-      <c r="S9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="T9" s="18">
-        <v>0.75217391</v>
-      </c>
-      <c r="U9" s="19">
-        <v>0.92857142999999998</v>
-      </c>
-      <c r="V9" s="20"/>
-      <c r="X9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="18">
-        <v>0.42716049</v>
-      </c>
-      <c r="Z9" s="19">
-        <v>0.48148148000000002</v>
-      </c>
-      <c r="AA9" s="20"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.69108796296296304</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.69327546296296294</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.69358796296296299</v>
-      </c>
-      <c r="F10">
-        <v>0.99926026280578295</v>
-      </c>
-      <c r="G10">
-        <v>0.99932162999999996</v>
-      </c>
-      <c r="H10">
-        <v>0.90679304999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.99993810000000005</v>
-      </c>
-      <c r="J10">
-        <v>0.47010647</v>
-      </c>
-      <c r="K10" s="1">
-        <f>D10-C10</f>
-        <v>2.1874999999998979E-3</v>
-      </c>
-      <c r="L10" s="1">
-        <f>E10-D10</f>
-        <v>3.1250000000004885E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.76108796296296299</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.76515046296296296</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.76561342592592585</v>
-      </c>
-      <c r="F11">
-        <v>0.99927891340359698</v>
-      </c>
-      <c r="G11">
-        <v>0.99933757000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.91173709000000003</v>
-      </c>
-      <c r="I11">
-        <v>0.99994083</v>
-      </c>
-      <c r="J11">
-        <v>0.47974307999999999</v>
-      </c>
-      <c r="K11" s="1">
-        <f>D11-C11</f>
-        <v>4.0624999999999689E-3</v>
-      </c>
-      <c r="L11" s="1">
-        <f>E11-D11</f>
-        <v>4.629629629628873E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.84583333333333333</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.84949074074074071</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.84998842592592594</v>
-      </c>
-      <c r="F12">
-        <v>0.99928174242686096</v>
-      </c>
-      <c r="G12">
-        <v>0.99934416999999998</v>
-      </c>
-      <c r="H12">
-        <v>0.90577149999999995</v>
-      </c>
-      <c r="I12">
-        <v>0.99993704999999999</v>
-      </c>
-      <c r="J12">
-        <v>0.47972551000000002</v>
-      </c>
-      <c r="K12" s="1">
-        <f>D12-C12</f>
-        <v>3.657407407407387E-3</v>
-      </c>
-      <c r="L12" s="1">
-        <f>E12-D12</f>
-        <v>4.9768518518522598E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.95406250000000004</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.95743055555555545</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.95770833333333327</v>
-      </c>
-      <c r="F13">
-        <v>0.99927493181530003</v>
-      </c>
-      <c r="G13">
-        <v>0.99934153000000003</v>
-      </c>
-      <c r="H13">
-        <v>0.90419161999999997</v>
-      </c>
-      <c r="I13">
-        <v>0.99993284999999998</v>
-      </c>
-      <c r="J13">
-        <v>0.49025974</v>
-      </c>
-      <c r="K13" s="1">
-        <f>D13-C13</f>
-        <v>3.3680555555554159E-3</v>
-      </c>
-      <c r="L13" s="1">
-        <f>E13-D13</f>
-        <v>2.777777777778212E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5.8055555555555555E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5.8321759259259261E-2</v>
-      </c>
-      <c r="F14">
-        <v>0.99928331410645299</v>
-      </c>
-      <c r="G14">
-        <v>0.99934259000000003</v>
-      </c>
-      <c r="H14">
-        <v>0.91183294999999998</v>
-      </c>
-      <c r="I14">
-        <v>0.99994019999999995</v>
-      </c>
-      <c r="J14">
-        <v>0.48458693000000003</v>
-      </c>
-      <c r="K14" s="1">
-        <f>D14-C14</f>
-        <v>3.8888888888888862E-3</v>
-      </c>
-      <c r="L14" s="1">
-        <f>E14-D14</f>
-        <v>2.66203703703706E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.18557870370370369</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.19017361111111111</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.19043981481481484</v>
-      </c>
-      <c r="F15">
-        <v>0.99929274418399905</v>
-      </c>
-      <c r="G15">
-        <v>0.99933945999999996</v>
-      </c>
-      <c r="H15">
-        <v>0.92857142999999998</v>
-      </c>
-      <c r="I15">
-        <v>0.99995279000000004</v>
-      </c>
-      <c r="J15">
-        <v>0.48148148000000002</v>
-      </c>
-      <c r="K15" s="1">
-        <f>D15-C15</f>
-        <v>4.5949074074074225E-3</v>
-      </c>
-      <c r="L15" s="1">
-        <f>E15-D15</f>
-        <v>2.6620370370372681E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.67020833333333341</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.68898148148148142</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.69092592592592583</v>
-      </c>
-      <c r="F16">
-        <v>0.99957115599728197</v>
-      </c>
-      <c r="G16">
-        <v>0.99957348000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.99687011000000003</v>
-      </c>
-      <c r="I16">
-        <v>0.99999729999999998</v>
-      </c>
-      <c r="J16">
-        <v>0.66818182000000004</v>
-      </c>
-      <c r="K16" s="1">
-        <f>D16-C16</f>
-        <v>1.8773148148148011E-2</v>
-      </c>
-      <c r="L16" s="1">
-        <f>E16-D16</f>
-        <v>1.9444444444444153E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.71351851851851855</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.75696759259259261</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.76085648148148144</v>
-      </c>
-      <c r="F17">
-        <v>0.99954683238456199</v>
-      </c>
-      <c r="G17">
-        <v>0.99955011999999999</v>
-      </c>
-      <c r="H17">
-        <v>0.99560024999999996</v>
-      </c>
-      <c r="I17">
-        <v>0.99999632999999999</v>
-      </c>
-      <c r="J17">
-        <v>0.64864865000000005</v>
-      </c>
-      <c r="K17" s="1">
-        <f>D17-C17</f>
-        <v>4.3449074074074057E-2</v>
-      </c>
-      <c r="L17" s="1">
-        <f>E17-D17</f>
-        <v>3.8888888888888307E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.79694444444444434</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.84399305555555548</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.84571759259259249</v>
-      </c>
-      <c r="F18">
-        <v>0.99960708010222199</v>
-      </c>
-      <c r="G18">
-        <v>0.99960987999999995</v>
-      </c>
-      <c r="H18">
-        <v>0.99645138</v>
-      </c>
-      <c r="I18">
-        <v>0.99999685000000005</v>
-      </c>
-      <c r="J18">
-        <v>0.69367588999999996</v>
-      </c>
-      <c r="K18" s="1">
-        <f>D18-C18</f>
-        <v>4.7048611111111138E-2</v>
-      </c>
-      <c r="L18" s="1">
-        <f>E18-D18</f>
-        <v>1.7245370370370106E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.89304398148148145</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.95253472222222213</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.9539467592592592</v>
-      </c>
-      <c r="F19">
-        <v>0.99961179514099496</v>
-      </c>
-      <c r="G19">
-        <v>0.99961381000000005</v>
-      </c>
-      <c r="H19">
-        <v>0.99730942</v>
-      </c>
-      <c r="I19">
-        <v>0.99999764000000002</v>
-      </c>
-      <c r="J19">
-        <v>0.69369930999999996</v>
-      </c>
-      <c r="K19" s="1">
-        <f>D19-C19</f>
-        <v>5.9490740740740677E-2</v>
-      </c>
-      <c r="L19" s="1">
-        <f>E19-D19</f>
-        <v>1.4120370370370727E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.98243055555555558</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5.2986111111111116E-2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5.4062500000000006E-2</v>
-      </c>
-      <c r="F20">
-        <v>0.99958402880155195</v>
-      </c>
-      <c r="G20">
-        <v>0.99958575999999999</v>
-      </c>
-      <c r="H20">
-        <v>0.99761621</v>
-      </c>
-      <c r="I20">
-        <v>0.9999979</v>
-      </c>
-      <c r="J20">
-        <v>0.67938312000000001</v>
-      </c>
-      <c r="K20" s="1">
-        <v>7.0555555555555552E-2</v>
-      </c>
-      <c r="L20" s="1">
-        <f>E20-D20</f>
-        <v>1.0763888888888906E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>8.8842592592592584E-2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.18445601851851853</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.18546296296296297</v>
-      </c>
-      <c r="F21">
-        <v>0.99961808185935896</v>
-      </c>
-      <c r="G21">
-        <v>0.99961931000000004</v>
-      </c>
-      <c r="H21">
-        <v>0.99824561000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.99999842999999999</v>
-      </c>
-      <c r="J21">
-        <v>0.70160296</v>
-      </c>
-      <c r="K21" s="1">
-        <f>D21-C21</f>
-        <v>9.5613425925925949E-2</v>
-      </c>
-      <c r="L21" s="1">
-        <f>E21-D21</f>
-        <v>1.0069444444444353E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.23093750000000002</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.37836805555555553</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.37917824074074075</v>
-      </c>
-      <c r="F22">
-        <v>0.99961965353894999</v>
-      </c>
-      <c r="G22">
-        <v>0.99962245999999999</v>
-      </c>
-      <c r="H22">
-        <v>0.99650349999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.99999685000000005</v>
-      </c>
-      <c r="J22">
-        <v>0.70370370000000004</v>
-      </c>
-      <c r="K22" s="1">
-        <f>D22-C22</f>
-        <v>0.14743055555555551</v>
-      </c>
-      <c r="L22" s="1">
-        <f>E22-D22</f>
-        <v>8.1018518518521931E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="14:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="14:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N39" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="X39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="14:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="N40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O40" s="21">
-        <f>K2</f>
-        <v>8.1828703703703543E-3</v>
-      </c>
-      <c r="P40" s="23">
-        <f>K9</f>
-        <v>1.5972222222222499E-3</v>
-      </c>
-      <c r="Q40" s="25">
-        <f>K16</f>
-        <v>1.8773148148148011E-2</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y40" s="21">
-        <f>L2</f>
-        <v>4.166666666667318E-4</v>
-      </c>
-      <c r="Z40" s="23">
-        <f>L9</f>
-        <v>4.1666666666662078E-4</v>
-      </c>
-      <c r="AA40" s="25">
-        <f>L16</f>
-        <v>1.9444444444444153E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="14:27" x14ac:dyDescent="0.3">
-      <c r="N41" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="O41" s="21">
-        <f t="shared" ref="O41:O45" si="0">K3</f>
-        <v>1.9282407407407387E-2</v>
-      </c>
-      <c r="P41" s="23">
-        <f t="shared" ref="P41:P45" si="1">K10</f>
-        <v>2.1874999999998979E-3</v>
-      </c>
-      <c r="Q41" s="25">
-        <f t="shared" ref="Q41:Q45" si="2">K17</f>
-        <v>4.3449074074074057E-2</v>
-      </c>
-      <c r="X41" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y41" s="21">
-        <f t="shared" ref="Y41:Y45" si="3">L3</f>
-        <v>5.7870370370372015E-4</v>
-      </c>
-      <c r="Z41" s="23">
-        <f t="shared" ref="Z41:Z45" si="4">L10</f>
-        <v>3.1250000000004885E-4</v>
-      </c>
-      <c r="AA41" s="25">
-        <f t="shared" ref="AA41:AA45" si="5">L17</f>
-        <v>3.8888888888888307E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="14:27" x14ac:dyDescent="0.3">
-      <c r="N42" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="O42" s="21">
+      <c r="P5" s="43">
         <f t="shared" si="0"/>
         <v>3.0752314814814885E-2</v>
       </c>
-      <c r="P42" s="23">
+      <c r="Q5" s="44">
         <f t="shared" si="1"/>
-        <v>4.0624999999999689E-3</v>
-      </c>
-      <c r="Q42" s="25">
-        <f t="shared" si="2"/>
-        <v>4.7048611111111138E-2</v>
-      </c>
-      <c r="X42" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y42" s="21">
-        <f t="shared" si="3"/>
         <v>5.0925925925926485E-4</v>
       </c>
-      <c r="Z42" s="23">
-        <f t="shared" si="4"/>
-        <v>4.629629629628873E-4</v>
-      </c>
-      <c r="AA42" s="25">
-        <f t="shared" si="5"/>
-        <v>1.7245370370370106E-3</v>
+      <c r="R5" s="2"/>
+      <c r="S5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.99906516497920606</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0.99936567011702704</v>
+      </c>
+      <c r="V5" s="16">
+        <v>0.99990192719351401</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>0.64077909</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0.96130167</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>0.63143828999999996</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0.53109815000000005</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>0.92419825</v>
       </c>
     </row>
-    <row r="43" spans="14:27" x14ac:dyDescent="0.3">
-      <c r="N43" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O43" s="21">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0.85001157407407402</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0.89247685185185188</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0.89300925925925922</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0.99880159431177695</v>
+      </c>
+      <c r="G6" s="37">
+        <v>0.99923280999999997</v>
+      </c>
+      <c r="H6" s="37">
+        <v>0.54685353000000003</v>
+      </c>
+      <c r="I6" s="37">
+        <v>0.99956749</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0.40480064999999998</v>
+      </c>
+      <c r="K6" s="36">
+        <v>0.99880866686993697</v>
+      </c>
+      <c r="L6" s="37">
+        <v>0.99922445999999998</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0.53792501999999998</v>
+      </c>
+      <c r="N6" s="37">
+        <v>0.99958298000000001</v>
+      </c>
+      <c r="O6" s="38">
+        <v>0.38490331</v>
+      </c>
+      <c r="P6" s="43">
         <f t="shared" si="0"/>
         <v>4.2465277777777866E-2</v>
       </c>
-      <c r="P43" s="23">
+      <c r="Q6" s="44">
         <f t="shared" si="1"/>
-        <v>3.657407407407387E-3</v>
-      </c>
-      <c r="Q43" s="25">
-        <f t="shared" si="2"/>
-        <v>5.9490740740740677E-2</v>
-      </c>
-      <c r="X43" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y43" s="21">
-        <f t="shared" si="3"/>
         <v>5.324074074073426E-4</v>
       </c>
-      <c r="Z43" s="23">
-        <f t="shared" si="4"/>
-        <v>4.9768518518522598E-4</v>
-      </c>
-      <c r="AA43" s="25">
-        <f t="shared" si="5"/>
-        <v>1.4120370370370727E-3</v>
+      <c r="S6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.99880159431177695</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0.999374995415934</v>
+      </c>
+      <c r="V6" s="16">
+        <v>0.99990203197215399</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0.54685353000000003</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0.96336995999999997</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>0.40480064999999998</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0.53498778999999996</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>0.92392189000000002</v>
       </c>
     </row>
-    <row r="44" spans="14:27" x14ac:dyDescent="0.3">
-      <c r="N44" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O44" s="21">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="39">
+        <v>0.95771990740740742</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0.9821643518518518</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.98241898148148143</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0.99932934186590605</v>
+      </c>
+      <c r="G7" s="37">
+        <v>0.99951162000000005</v>
+      </c>
+      <c r="H7" s="37">
+        <v>0.81550317000000005</v>
+      </c>
+      <c r="I7" s="37">
+        <v>0.99981699999999996</v>
+      </c>
+      <c r="J7" s="38">
+        <v>0.62346214</v>
+      </c>
+      <c r="K7" s="36">
+        <v>0.99931998663024502</v>
+      </c>
+      <c r="L7" s="37">
+        <v>0.99950181999999999</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.81310419</v>
+      </c>
+      <c r="N7" s="37">
+        <v>0.99981745</v>
+      </c>
+      <c r="O7" s="38">
+        <v>0.61444805000000002</v>
+      </c>
+      <c r="P7" s="43">
         <f t="shared" si="0"/>
         <v>2.444444444444438E-2</v>
       </c>
-      <c r="P44" s="23">
+      <c r="Q7" s="44">
         <f t="shared" si="1"/>
-        <v>3.3680555555554159E-3</v>
-      </c>
-      <c r="Q44" s="25">
-        <f t="shared" si="2"/>
-        <v>7.0555555555555552E-2</v>
-      </c>
-      <c r="X44" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y44" s="21">
-        <f t="shared" si="3"/>
         <v>2.5462962962963243E-4</v>
       </c>
-      <c r="Z44" s="23">
-        <f t="shared" si="4"/>
-        <v>2.777777777778212E-4</v>
-      </c>
-      <c r="AA44" s="25">
-        <f t="shared" si="5"/>
-        <v>1.0763888888888906E-3</v>
+      <c r="S7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0.99932934186590605</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0.99938255444634805</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0.999909067109371</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>0.81550317000000005</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0.96519864</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>0.99981370999999997</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>0.62346214</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0.54306012999999997</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>0.92999480000000001</v>
       </c>
     </row>
-    <row r="45" spans="14:27" x14ac:dyDescent="0.3">
-      <c r="N45" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O45" s="21">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="39">
+        <v>5.8321759259259261E-2</v>
+      </c>
+      <c r="D8" s="39">
+        <v>8.8576388888888899E-2</v>
+      </c>
+      <c r="E8" s="39">
+        <v>8.8842592592592584E-2</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0.99927309818911003</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0.99945980999999995</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0.80211794000000003</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0.99981253000000003</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.58441754999999995</v>
+      </c>
+      <c r="K8" s="36">
+        <v>0.99928174242686096</v>
+      </c>
+      <c r="L8" s="37">
+        <v>0.99947142</v>
+      </c>
+      <c r="M8" s="37">
+        <v>0.79697987000000003</v>
+      </c>
+      <c r="N8" s="37">
+        <v>0.99980957999999998</v>
+      </c>
+      <c r="O8" s="38">
+        <v>0.58569667000000003</v>
+      </c>
+      <c r="P8" s="43">
         <f t="shared" si="0"/>
         <v>3.0254629629629638E-2</v>
       </c>
-      <c r="P45" s="23">
+      <c r="Q8" s="44">
         <f t="shared" si="1"/>
+        <v>2.6620370370368518E-4</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0.99927309818911003</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0.99939627857706403</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0.99990550276458401</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>0.80211794000000003</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0.96847682000000002</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>0.99983688999999998</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>0.58441754999999995</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0.55310135999999999</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>0.92738275000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="39">
+        <v>0.19043981481481484</v>
+      </c>
+      <c r="D9" s="39">
+        <v>0.23065972222222222</v>
+      </c>
+      <c r="E9" s="39">
+        <v>0.23093750000000002</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0.99908021817706805</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0.99922447000000003</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0.78143949000000001</v>
+      </c>
+      <c r="I9" s="37">
+        <v>0.99985504000000003</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0.40043232000000001</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0.99909156919633701</v>
+      </c>
+      <c r="L9" s="37">
+        <v>0.99927021000000005</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.75217391</v>
+      </c>
+      <c r="N9" s="37">
+        <v>0.99982059999999995</v>
+      </c>
+      <c r="O9" s="38">
+        <v>0.42716049</v>
+      </c>
+      <c r="P9" s="43">
+        <f t="shared" si="0"/>
+        <v>4.0219907407407385E-2</v>
+      </c>
+      <c r="Q9" s="44">
+        <f t="shared" si="1"/>
+        <v>2.7777777777779344E-4</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="17">
+        <v>0.99908021817706805</v>
+      </c>
+      <c r="U9" s="18">
+        <v>0.99939630040594696</v>
+      </c>
+      <c r="V9" s="19">
+        <v>0.99990744553518995</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>0.78143949000000001</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>0.96444549000000002</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>0.99985451999999997</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD9" s="17">
+        <v>0.40043232000000001</v>
+      </c>
+      <c r="AE9" s="18">
+        <v>0.55336395999999999</v>
+      </c>
+      <c r="AF9" s="19">
+        <v>0.92853282999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="39">
+        <v>0.65953703703703703</v>
+      </c>
+      <c r="D10" s="39">
+        <v>0.66113425925925928</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0.6615509259259259</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0.99936032640641703</v>
+      </c>
+      <c r="G10" s="37">
+        <v>0.99938766999999995</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0.95984848</v>
+      </c>
+      <c r="I10" s="37">
+        <v>0.99997219999999998</v>
+      </c>
+      <c r="J10" s="38">
+        <v>0.52032853999999995</v>
+      </c>
+      <c r="K10" s="36">
+        <v>0.99925322766856595</v>
+      </c>
+      <c r="L10" s="37">
+        <v>0.99931384999999995</v>
+      </c>
+      <c r="M10" s="37">
+        <v>0.90742001000000005</v>
+      </c>
+      <c r="N10" s="37">
+        <v>0.99993885000000005</v>
+      </c>
+      <c r="O10" s="38">
+        <v>0.46608391999999998</v>
+      </c>
+      <c r="P10" s="43">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222499E-3</v>
+      </c>
+      <c r="Q10" s="44">
+        <f t="shared" si="1"/>
+        <v>4.1666666666662078E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="39">
+        <v>0.69108796296296304</v>
+      </c>
+      <c r="D11" s="39">
+        <v>0.69327546296296294</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0.69358796296296299</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0.99936857772427001</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0.99939487000000005</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0.96211698999999995</v>
+      </c>
+      <c r="I11" s="37">
+        <v>0.99997325000000004</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0.52878137999999997</v>
+      </c>
+      <c r="K11" s="36">
+        <v>0.99926026280578295</v>
+      </c>
+      <c r="L11" s="37">
+        <v>0.99932162999999996</v>
+      </c>
+      <c r="M11" s="37">
+        <v>0.90679304999999999</v>
+      </c>
+      <c r="N11" s="37">
+        <v>0.99993810000000005</v>
+      </c>
+      <c r="O11" s="38">
+        <v>0.47010647</v>
+      </c>
+      <c r="P11" s="43">
+        <f t="shared" si="0"/>
+        <v>2.1874999999998979E-3</v>
+      </c>
+      <c r="Q11" s="44">
+        <f t="shared" si="1"/>
+        <v>3.1250000000004885E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="39">
+        <v>0.76108796296296299</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0.76515046296296296</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0.76561342592592585</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0.99936567011702704</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.99939290000000003</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0.96130167</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0.99997230000000004</v>
+      </c>
+      <c r="J12" s="38">
+        <v>0.53109815000000005</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0.99927891340359698</v>
+      </c>
+      <c r="L12" s="37">
+        <v>0.99933757000000001</v>
+      </c>
+      <c r="M12" s="37">
+        <v>0.91173709000000003</v>
+      </c>
+      <c r="N12" s="37">
+        <v>0.99994083</v>
+      </c>
+      <c r="O12" s="38">
+        <v>0.47974307999999999</v>
+      </c>
+      <c r="P12" s="43">
+        <f t="shared" si="0"/>
+        <v>4.0624999999999689E-3</v>
+      </c>
+      <c r="Q12" s="44">
+        <f t="shared" si="1"/>
+        <v>4.629629629628873E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="39">
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0.84949074074074071</v>
+      </c>
+      <c r="E13" s="39">
+        <v>0.84998842592592594</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0.999374995415934</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0.99940076</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0.96336995999999997</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0.99997376999999998</v>
+      </c>
+      <c r="J13" s="38">
+        <v>0.53498778999999996</v>
+      </c>
+      <c r="K13" s="36">
+        <v>0.99928174242686096</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0.99934416999999998</v>
+      </c>
+      <c r="M13" s="37">
+        <v>0.90577149999999995</v>
+      </c>
+      <c r="N13" s="37">
+        <v>0.99993704999999999</v>
+      </c>
+      <c r="O13" s="38">
+        <v>0.47972551000000002</v>
+      </c>
+      <c r="P13" s="43">
+        <f t="shared" si="0"/>
+        <v>3.657407407407387E-3</v>
+      </c>
+      <c r="Q13" s="44">
+        <f t="shared" si="1"/>
+        <v>4.9768518518522598E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="39">
+        <v>0.95406250000000004</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0.95743055555555545</v>
+      </c>
+      <c r="E14" s="39">
+        <v>0.95770833333333327</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0.99938255444634805</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0.99940748999999995</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0.96519864</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0.99997460000000005</v>
+      </c>
+      <c r="J14" s="38">
+        <v>0.54306012999999997</v>
+      </c>
+      <c r="K14" s="36">
+        <v>0.99927493181530003</v>
+      </c>
+      <c r="L14" s="37">
+        <v>0.99934153000000003</v>
+      </c>
+      <c r="M14" s="37">
+        <v>0.90419161999999997</v>
+      </c>
+      <c r="N14" s="37">
+        <v>0.99993284999999998</v>
+      </c>
+      <c r="O14" s="38">
+        <v>0.49025974</v>
+      </c>
+      <c r="P14" s="43">
+        <f t="shared" si="0"/>
+        <v>3.3680555555554159E-3</v>
+      </c>
+      <c r="Q14" s="44">
+        <f t="shared" si="1"/>
+        <v>2.777777777778212E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="39">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="D15" s="39">
+        <v>5.8055555555555555E-2</v>
+      </c>
+      <c r="E15" s="39">
+        <v>5.8321759259259261E-2</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0.99939627857706403</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0.99941922999999999</v>
+      </c>
+      <c r="H15" s="37">
+        <v>0.96847682000000002</v>
+      </c>
+      <c r="I15" s="37">
+        <v>0.99997659000000005</v>
+      </c>
+      <c r="J15" s="38">
+        <v>0.55310135999999999</v>
+      </c>
+      <c r="K15" s="36">
+        <v>0.99928331410645299</v>
+      </c>
+      <c r="L15" s="37">
+        <v>0.99934259000000003</v>
+      </c>
+      <c r="M15" s="37">
+        <v>0.91183294999999998</v>
+      </c>
+      <c r="N15" s="37">
+        <v>0.99994019999999995</v>
+      </c>
+      <c r="O15" s="38">
+        <v>0.48458693000000003</v>
+      </c>
+      <c r="P15" s="43">
+        <f t="shared" si="0"/>
         <v>3.8888888888888862E-3</v>
       </c>
-      <c r="Q45" s="25">
-        <f t="shared" si="2"/>
+      <c r="Q15" s="44">
+        <f t="shared" si="1"/>
+        <v>2.66203703703706E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="39">
+        <v>0.18557870370370369</v>
+      </c>
+      <c r="D16" s="39">
+        <v>0.19017361111111111</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0.19043981481481484</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0.99939630040594696</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0.99942224000000002</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0.96444549000000002</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0.99997360000000002</v>
+      </c>
+      <c r="J16" s="38">
+        <v>0.55336395999999999</v>
+      </c>
+      <c r="K16" s="36">
+        <v>0.99929274418399905</v>
+      </c>
+      <c r="L16" s="37">
+        <v>0.99933945999999996</v>
+      </c>
+      <c r="M16" s="37">
+        <v>0.92857142999999998</v>
+      </c>
+      <c r="N16" s="37">
+        <v>0.99995279000000004</v>
+      </c>
+      <c r="O16" s="38">
+        <v>0.48148148000000002</v>
+      </c>
+      <c r="P16" s="43">
+        <f t="shared" si="0"/>
+        <v>4.5949074074074225E-3</v>
+      </c>
+      <c r="Q16" s="44">
+        <f t="shared" si="1"/>
+        <v>2.6620370370372681E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="39">
+        <v>0.67020833333333341</v>
+      </c>
+      <c r="D17" s="39">
+        <v>0.68898148148148142</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0.69092592592592583</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0.99991041426330596</v>
+      </c>
+      <c r="G17" s="37">
+        <v>0.99991030999999997</v>
+      </c>
+      <c r="H17" s="37">
+        <v>1</v>
+      </c>
+      <c r="I17" s="37">
+        <v>1</v>
+      </c>
+      <c r="J17" s="38">
+        <v>0.92977412999999998</v>
+      </c>
+      <c r="K17" s="36">
+        <v>0.99957115599728197</v>
+      </c>
+      <c r="L17" s="37">
+        <v>0.99957348000000001</v>
+      </c>
+      <c r="M17" s="37">
+        <v>0.99687011000000003</v>
+      </c>
+      <c r="N17" s="37">
+        <v>0.99999729999999998</v>
+      </c>
+      <c r="O17" s="38">
+        <v>0.66818182000000004</v>
+      </c>
+      <c r="P17" s="43">
+        <f t="shared" si="0"/>
+        <v>1.8773148148148011E-2</v>
+      </c>
+      <c r="Q17" s="44">
+        <f t="shared" si="1"/>
+        <v>1.9444444444444153E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="39">
+        <v>0.71351851851851855</v>
+      </c>
+      <c r="D18" s="39">
+        <v>0.75696759259259261</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0.76085648148148144</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0.99990216294545298</v>
+      </c>
+      <c r="G18" s="37">
+        <v>0.99990243999999995</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0.99966876000000005</v>
+      </c>
+      <c r="I18" s="37">
+        <v>0.99999961000000004</v>
+      </c>
+      <c r="J18" s="38">
+        <v>0.92406613999999998</v>
+      </c>
+      <c r="K18" s="36">
+        <v>0.99954683238456199</v>
+      </c>
+      <c r="L18" s="37">
+        <v>0.99955011999999999</v>
+      </c>
+      <c r="M18" s="37">
+        <v>0.99560024999999996</v>
+      </c>
+      <c r="N18" s="37">
+        <v>0.99999632999999999</v>
+      </c>
+      <c r="O18" s="38">
+        <v>0.64864865000000005</v>
+      </c>
+      <c r="P18" s="43">
+        <f t="shared" si="0"/>
+        <v>4.3449074074074057E-2</v>
+      </c>
+      <c r="Q18" s="44">
+        <f t="shared" si="1"/>
+        <v>3.8888888888888307E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="39">
+        <v>0.79694444444444434</v>
+      </c>
+      <c r="D19" s="39">
+        <v>0.84399305555555548</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0.84571759259259249</v>
+      </c>
+      <c r="F19" s="36">
+        <v>0.99990192719351401</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0.99990181</v>
+      </c>
+      <c r="H19" s="39">
+        <v>1</v>
+      </c>
+      <c r="I19" s="39">
+        <v>1</v>
+      </c>
+      <c r="J19" s="38">
+        <v>0.92419825</v>
+      </c>
+      <c r="K19" s="36">
+        <v>0.99960708010222199</v>
+      </c>
+      <c r="L19" s="37">
+        <v>0.99960987999999995</v>
+      </c>
+      <c r="M19" s="37">
+        <v>0.99645138</v>
+      </c>
+      <c r="N19" s="37">
+        <v>0.99999685000000005</v>
+      </c>
+      <c r="O19" s="38">
+        <v>0.69367588999999996</v>
+      </c>
+      <c r="P19" s="43">
+        <f t="shared" si="0"/>
+        <v>4.7048611111111138E-2</v>
+      </c>
+      <c r="Q19" s="44">
+        <f t="shared" si="1"/>
+        <v>1.7245370370370106E-3</v>
+      </c>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="39">
+        <v>0.89304398148148145</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0.95253472222222213</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0.9539467592592592</v>
+      </c>
+      <c r="F20" s="36">
+        <v>0.99990203197215399</v>
+      </c>
+      <c r="G20" s="37">
+        <v>0.99990192</v>
+      </c>
+      <c r="H20" s="39">
+        <v>1</v>
+      </c>
+      <c r="I20" s="39">
+        <v>1</v>
+      </c>
+      <c r="J20" s="38">
+        <v>0.92392189000000002</v>
+      </c>
+      <c r="K20" s="36">
+        <v>0.99961179514099496</v>
+      </c>
+      <c r="L20" s="37">
+        <v>0.99961381000000005</v>
+      </c>
+      <c r="M20" s="37">
+        <v>0.99730942</v>
+      </c>
+      <c r="N20" s="37">
+        <v>0.99999764000000002</v>
+      </c>
+      <c r="O20" s="38">
+        <v>0.69369930999999996</v>
+      </c>
+      <c r="P20" s="43">
+        <f t="shared" si="0"/>
+        <v>5.9490740740740677E-2</v>
+      </c>
+      <c r="Q20" s="44">
+        <f t="shared" si="1"/>
+        <v>1.4120370370370727E-3</v>
+      </c>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="39">
+        <v>0.98243055555555558</v>
+      </c>
+      <c r="D21" s="39">
+        <v>5.2986111111111116E-2</v>
+      </c>
+      <c r="E21" s="39">
+        <v>5.4062500000000006E-2</v>
+      </c>
+      <c r="F21" s="36">
+        <v>0.999909067109371</v>
+      </c>
+      <c r="G21" s="37">
+        <v>0.99990917999999995</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0.99981370999999997</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0.99999978</v>
+      </c>
+      <c r="J21" s="38">
+        <v>0.92999480000000001</v>
+      </c>
+      <c r="K21" s="36">
+        <v>0.99958402880155195</v>
+      </c>
+      <c r="L21" s="37">
+        <v>0.99958575999999999</v>
+      </c>
+      <c r="M21" s="37">
+        <v>0.99761621</v>
+      </c>
+      <c r="N21" s="37">
+        <v>0.9999979</v>
+      </c>
+      <c r="O21" s="38">
+        <v>0.67938312000000001</v>
+      </c>
+      <c r="P21" s="43">
+        <v>7.0555555555555552E-2</v>
+      </c>
+      <c r="Q21" s="44">
+        <f>E21-D21</f>
+        <v>1.0763888888888906E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="39">
+        <v>8.8842592592592584E-2</v>
+      </c>
+      <c r="D22" s="39">
+        <v>0.18445601851851853</v>
+      </c>
+      <c r="E22" s="39">
+        <v>0.18546296296296297</v>
+      </c>
+      <c r="F22" s="36">
+        <v>0.99990550276458401</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0.99990559000000001</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0.99983688999999998</v>
+      </c>
+      <c r="I22" s="37">
+        <v>0.99999979999999999</v>
+      </c>
+      <c r="J22" s="38">
+        <v>0.92738275000000003</v>
+      </c>
+      <c r="K22" s="36">
+        <v>0.99961808185935896</v>
+      </c>
+      <c r="L22" s="37">
+        <v>0.99961931000000004</v>
+      </c>
+      <c r="M22" s="37">
+        <v>0.99824561000000001</v>
+      </c>
+      <c r="N22" s="37">
+        <v>0.99999842999999999</v>
+      </c>
+      <c r="O22" s="38">
+        <v>0.70160296</v>
+      </c>
+      <c r="P22" s="43">
+        <f>D22-C22</f>
         <v>9.5613425925925949E-2</v>
       </c>
-      <c r="X45" s="14" t="s">
+      <c r="Q22" s="44">
+        <f>E22-D22</f>
+        <v>1.0069444444444353E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="39">
+        <v>0.23093750000000002</v>
+      </c>
+      <c r="D23" s="39">
+        <v>0.37836805555555553</v>
+      </c>
+      <c r="E23" s="39">
+        <v>0.37917824074074075</v>
+      </c>
+      <c r="F23" s="40">
+        <v>0.99990744553518995</v>
+      </c>
+      <c r="G23" s="41">
+        <v>0.99990751</v>
+      </c>
+      <c r="H23" s="41">
+        <v>0.99985451999999997</v>
+      </c>
+      <c r="I23" s="41">
+        <v>0.99999983000000003</v>
+      </c>
+      <c r="J23" s="42">
+        <v>0.92853282999999998</v>
+      </c>
+      <c r="K23" s="40">
+        <v>0.99961965353894999</v>
+      </c>
+      <c r="L23" s="41">
+        <v>0.99962245999999999</v>
+      </c>
+      <c r="M23" s="41">
+        <v>0.99650349999999999</v>
+      </c>
+      <c r="N23" s="41">
+        <v>0.99999685000000005</v>
+      </c>
+      <c r="O23" s="42">
+        <v>0.70370370000000004</v>
+      </c>
+      <c r="P23" s="45">
+        <f>D23-C23</f>
+        <v>0.14743055555555551</v>
+      </c>
+      <c r="Q23" s="46">
+        <f>E23-D23</f>
+        <v>8.1018518518521931E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+    </row>
+    <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="S27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0.99912794235258795</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0.99925322766856595</v>
+      </c>
+      <c r="V27" s="15">
+        <v>0.99957115599728197</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>0.67505720999999996</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>0.90742001000000005</v>
+      </c>
+      <c r="AA27" s="15">
+        <v>0.99687011000000003</v>
+      </c>
+      <c r="AC27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>0.61888111999999995</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>0.46608391999999998</v>
+      </c>
+      <c r="AF27" s="15">
+        <v>0.66818182000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="S28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28" s="10">
+        <v>0.99912667004053801</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0.99926026280578295</v>
+      </c>
+      <c r="V28" s="16">
+        <v>0.99954683238456199</v>
+      </c>
+      <c r="X28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>0.67214571000000001</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0.90679304999999999</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>0.99560024999999996</v>
+      </c>
+      <c r="AC28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD28" s="10">
+        <v>0.61957412000000001</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>0.47010647</v>
+      </c>
+      <c r="AF28" s="16">
+        <v>0.64864865000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="S29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T29" s="10">
+        <v>0.99909534122735599</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0.99927891340359698</v>
+      </c>
+      <c r="V29" s="16">
+        <v>0.99960708010222199</v>
+      </c>
+      <c r="X29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>0.64992311999999997</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>0.91173709000000003</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>0.99645138</v>
+      </c>
+      <c r="AC29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD29" s="10">
+        <v>0.62648221000000004</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>0.47974307999999999</v>
+      </c>
+      <c r="AF29" s="16">
+        <v>0.69367588999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="S30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T30" s="10">
+        <v>0.99880866686993697</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0.99928174242686096</v>
+      </c>
+      <c r="V30" s="16">
+        <v>0.99961179514099496</v>
+      </c>
+      <c r="X30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>0.53792501999999998</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>0.90577149999999995</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>0.99730942</v>
+      </c>
+      <c r="AC30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD30" s="10">
+        <v>0.38490331</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>0.47972551000000002</v>
+      </c>
+      <c r="AF30" s="16">
+        <v>0.69369930999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="S31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0.99931998663024502</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0.99927493181530003</v>
+      </c>
+      <c r="V31" s="16">
+        <v>0.99958402880155195</v>
+      </c>
+      <c r="X31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>0.81310419</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>0.90419161999999997</v>
+      </c>
+      <c r="AA31" s="16">
+        <v>0.99761621</v>
+      </c>
+      <c r="AC31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD31" s="10">
+        <v>0.61444805000000002</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>0.49025974</v>
+      </c>
+      <c r="AF31" s="16">
+        <v>0.67938312000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="S32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" s="10">
+        <v>0.99928174242686096</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0.99928331410645299</v>
+      </c>
+      <c r="V32" s="16">
+        <v>0.99961808185935896</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>0.79697987000000003</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>0.91183294999999998</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>0.99824561000000001</v>
+      </c>
+      <c r="AC32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD32" s="10">
+        <v>0.58569667000000003</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>0.48458693000000003</v>
+      </c>
+      <c r="AF32" s="16">
+        <v>0.70160296</v>
+      </c>
+    </row>
+    <row r="33" spans="19:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T33" s="17">
+        <v>0.99909156919633701</v>
+      </c>
+      <c r="U33" s="18">
+        <v>0.99929274418399905</v>
+      </c>
+      <c r="V33" s="19">
+        <v>0.99961965353894999</v>
+      </c>
+      <c r="X33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y33" s="17">
+        <v>0.75217391</v>
+      </c>
+      <c r="Z33" s="18">
+        <v>0.92857142999999998</v>
+      </c>
+      <c r="AA33" s="19">
+        <v>0.99650349999999999</v>
+      </c>
+      <c r="AC33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD33" s="17">
+        <v>0.42716049</v>
+      </c>
+      <c r="AE33" s="18">
+        <v>0.48148148000000002</v>
+      </c>
+      <c r="AF33" s="19">
+        <v>0.70370370000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="19:32" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="19:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="19:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Y45" s="21">
-        <f t="shared" si="3"/>
+      <c r="T63" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U63" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V63" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD63" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE63" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="19:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="S64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T64" s="20">
+        <f>P3</f>
+        <v>8.1828703703703543E-3</v>
+      </c>
+      <c r="U64" s="22">
+        <f>P10</f>
+        <v>1.5972222222222499E-3</v>
+      </c>
+      <c r="V64" s="24">
+        <f>P17</f>
+        <v>1.8773148148148011E-2</v>
+      </c>
+      <c r="AC64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD64" s="20">
+        <f>Q3</f>
+        <v>4.166666666667318E-4</v>
+      </c>
+      <c r="AE64" s="22">
+        <f>Q10</f>
+        <v>4.1666666666662078E-4</v>
+      </c>
+      <c r="AF64" s="24">
+        <f>Q17</f>
+        <v>1.9444444444444153E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S65" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T65" s="20">
+        <f>P4</f>
+        <v>1.9282407407407387E-2</v>
+      </c>
+      <c r="U65" s="22">
+        <f>P11</f>
+        <v>2.1874999999998979E-3</v>
+      </c>
+      <c r="V65" s="24">
+        <f>P18</f>
+        <v>4.3449074074074057E-2</v>
+      </c>
+      <c r="AC65" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD65" s="20">
+        <f>Q4</f>
+        <v>5.7870370370372015E-4</v>
+      </c>
+      <c r="AE65" s="22">
+        <f>Q11</f>
+        <v>3.1250000000004885E-4</v>
+      </c>
+      <c r="AF65" s="24">
+        <f>Q18</f>
+        <v>3.8888888888888307E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S66" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T66" s="20">
+        <f>P5</f>
+        <v>3.0752314814814885E-2</v>
+      </c>
+      <c r="U66" s="22">
+        <f>P12</f>
+        <v>4.0624999999999689E-3</v>
+      </c>
+      <c r="V66" s="24">
+        <f>P19</f>
+        <v>4.7048611111111138E-2</v>
+      </c>
+      <c r="AC66" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD66" s="20">
+        <f>Q5</f>
+        <v>5.0925925925926485E-4</v>
+      </c>
+      <c r="AE66" s="22">
+        <f>Q12</f>
+        <v>4.629629629628873E-4</v>
+      </c>
+      <c r="AF66" s="24">
+        <f>Q19</f>
+        <v>1.7245370370370106E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S67" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T67" s="20">
+        <f>P6</f>
+        <v>4.2465277777777866E-2</v>
+      </c>
+      <c r="U67" s="22">
+        <f>P13</f>
+        <v>3.657407407407387E-3</v>
+      </c>
+      <c r="V67" s="24">
+        <f>P20</f>
+        <v>5.9490740740740677E-2</v>
+      </c>
+      <c r="AC67" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD67" s="20">
+        <f>Q6</f>
+        <v>5.324074074073426E-4</v>
+      </c>
+      <c r="AE67" s="22">
+        <f>Q13</f>
+        <v>4.9768518518522598E-4</v>
+      </c>
+      <c r="AF67" s="24">
+        <f>Q20</f>
+        <v>1.4120370370370727E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S68" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T68" s="20">
+        <f>P7</f>
+        <v>2.444444444444438E-2</v>
+      </c>
+      <c r="U68" s="22">
+        <f>P14</f>
+        <v>3.3680555555554159E-3</v>
+      </c>
+      <c r="V68" s="24">
+        <f>P21</f>
+        <v>7.0555555555555552E-2</v>
+      </c>
+      <c r="AC68" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD68" s="20">
+        <f>Q7</f>
+        <v>2.5462962962963243E-4</v>
+      </c>
+      <c r="AE68" s="22">
+        <f>Q14</f>
+        <v>2.777777777778212E-4</v>
+      </c>
+      <c r="AF68" s="24">
+        <f>Q21</f>
+        <v>1.0763888888888906E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S69" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T69" s="20">
+        <f>P8</f>
+        <v>3.0254629629629638E-2</v>
+      </c>
+      <c r="U69" s="22">
+        <f>P15</f>
+        <v>3.8888888888888862E-3</v>
+      </c>
+      <c r="V69" s="24">
+        <f>P22</f>
+        <v>9.5613425925925949E-2</v>
+      </c>
+      <c r="AC69" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD69" s="20">
+        <f>Q8</f>
         <v>2.6620370370368518E-4</v>
       </c>
-      <c r="Z45" s="23">
-        <f t="shared" si="4"/>
+      <c r="AE69" s="22">
+        <f>Q15</f>
         <v>2.66203703703706E-4</v>
       </c>
-      <c r="AA45" s="25">
-        <f t="shared" si="5"/>
+      <c r="AF69" s="24">
+        <f>Q22</f>
         <v>1.0069444444444353E-3</v>
       </c>
     </row>
-    <row r="46" spans="14:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N46" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O46" s="22">
-        <f>K8</f>
+    <row r="70" spans="19:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S70" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T70" s="21">
+        <f>P9</f>
         <v>4.0219907407407385E-2</v>
       </c>
-      <c r="P46" s="24">
-        <f>K15</f>
+      <c r="U70" s="23">
+        <f>P16</f>
         <v>4.5949074074074225E-3</v>
       </c>
-      <c r="Q46" s="26">
-        <f>K22</f>
+      <c r="V70" s="25">
+        <f>P23</f>
         <v>0.14743055555555551</v>
       </c>
-      <c r="X46" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y46" s="22">
-        <f>L8</f>
+      <c r="AC70" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD70" s="21">
+        <f>Q9</f>
         <v>2.7777777777779344E-4</v>
       </c>
-      <c r="Z46" s="24">
-        <f>L15</f>
+      <c r="AE70" s="23">
+        <f>Q16</f>
         <v>2.6620370370372681E-4</v>
       </c>
-      <c r="AA46" s="26">
-        <f>L22</f>
+      <c r="AF70" s="25">
+        <f>Q23</f>
         <v>8.1018518518521931E-4</v>
       </c>
     </row>
-    <row r="47" spans="14:27" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="19:32" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:L22">
-    <sortCondition ref="B1:B22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q23">
+    <sortCondition ref="B2:B23"/>
   </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
